--- a/Assets/Resources/Kosugi/PatrolPattern.xlsx
+++ b/Assets/Resources/Kosugi/PatrolPattern.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>家</t>
-  </si>
-  <si>
     <t>見回り</t>
   </si>
   <si>
@@ -122,6 +119,16 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少年の家(実質null)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,219 +503,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
+      <c r="D14">
         <v>31</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2 D3:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F2 E3:E14">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/Resources/Kosugi/PatrolPattern.xlsx
+++ b/Assets/Resources/Kosugi/PatrolPattern.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>見回り</t>
   </si>
@@ -129,6 +129,35 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ジッシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回開始までの待機時間(float)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当する巡回ルート番号(1～</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,20 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -532,8 +567,14 @@
       <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -549,8 +590,14 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -566,8 +613,14 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -583,8 +636,14 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -600,8 +659,14 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -617,8 +682,14 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -634,8 +705,14 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -651,8 +728,14 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -668,8 +751,14 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -685,8 +774,14 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -702,8 +797,14 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>12</v>
       </c>
@@ -719,8 +820,14 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -736,8 +843,14 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>14</v>
       </c>
@@ -752,12 +865,18 @@
       </c>
       <c r="E14" s="2">
         <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F2 E3:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14 E2">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
